--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26397</v>
+        <v>25221</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>4063.84</v>
+        <v>21.27</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4263</v>
+        <v>7199</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>681.01</v>
+        <v>3.12</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3629</v>
+        <v>2982</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>467.62</v>
+        <v>1.66</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>13266</v>
+        <v>8447</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>1461.48</v>
+        <v>6.55</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10281</v>
+        <v>14299</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>1471.31</v>
+        <v>6.53</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7105</v>
+        <v>5023</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>833.16</v>
+        <v>2.84</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>3003</v>
+        <v>2152</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>456.49</v>
+        <v>1.63</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>9562</v>
+        <v>8583</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>1323.63</v>
+        <v>5.65</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1223</v>
+        <v>1151</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>164.68</v>
+        <v>0.63</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4964</v>
+        <v>7423</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>745.71</v>
+        <v>3.28</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3101</v>
+        <v>3068</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>461.82</v>
+        <v>1.9</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>14826</v>
+        <v>13034</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>1512.12</v>
+        <v>5.84</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>14606</v>
+        <v>13904</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>1408.91</v>
+        <v>6.3</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>16216</v>
       </c>
       <c r="H2" t="n">
-        <v>1127</v>
+        <v>7517</v>
       </c>
       <c r="I2" t="n">
-        <v>10169</v>
+        <v>4336</v>
       </c>
       <c r="J2" t="n">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7303</v>
+        <v>12627</v>
       </c>
       <c r="H3" t="n">
-        <v>6844</v>
+        <v>1339</v>
       </c>
       <c r="I3" t="n">
-        <v>3387</v>
+        <v>9938</v>
       </c>
       <c r="J3" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>742</v>
+        <v>8329</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7623</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3134</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>4434</v>
+        <v>6279</v>
       </c>
       <c r="I5" t="n">
-        <v>22831</v>
+        <v>10973</v>
       </c>
       <c r="J5" t="n">
-        <v>2877</v>
+        <v>149</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1881</v>
+        <v>6452</v>
       </c>
       <c r="H6" t="n">
-        <v>6032</v>
+        <v>565</v>
       </c>
       <c r="I6" t="n">
-        <v>3848</v>
+        <v>25442</v>
       </c>
       <c r="J6" t="n">
-        <v>1961</v>
+        <v>796</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4918</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3405</v>
+        <v>9814</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1658</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3394</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>968</v>
+        <v>1557</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1863</v>
       </c>
       <c r="I9" t="n">
-        <v>11247</v>
+        <v>17130</v>
       </c>
       <c r="J9" t="n">
-        <v>1867</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>405.3999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>28.17499999999999</v>
+        <v>187.925</v>
       </c>
       <c r="I2" t="n">
-        <v>254.2249999999999</v>
+        <v>108.4</v>
       </c>
       <c r="J2" t="n">
-        <v>10.075</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>346.8924999999999</v>
+        <v>599.7824999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>325.0899999999999</v>
+        <v>63.60249999999998</v>
       </c>
       <c r="I3" t="n">
-        <v>160.8825</v>
+        <v>472.0549999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>13.11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.27049999999998</v>
+        <v>564.2897499999998</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>516.4582499999998</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>135.43225</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>269.44565</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>381.21315</v>
+        <v>539.8370249999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1962.895225</v>
+        <v>943.4036749999999</v>
       </c>
       <c r="J5" t="n">
-        <v>247.350075</v>
+        <v>12.810275</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>192.5720775</v>
+        <v>660.5396299999999</v>
       </c>
       <c r="H6" t="n">
-        <v>617.5410799999999</v>
+        <v>57.84328749999999</v>
       </c>
       <c r="I6" t="n">
-        <v>393.9486199999999</v>
+        <v>2604.688355</v>
       </c>
       <c r="J6" t="n">
-        <v>200.7622775</v>
+        <v>81.49248999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>576.0932905</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>550.5568249999999</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>398.8608487499999</v>
+        <v>1149.6095065</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>194.2177055</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>442.6650803499999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>78.77716809999998</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.82693518</v>
+        <v>221.6906385075</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>265.2598969424999</v>
       </c>
       <c r="I9" t="n">
-        <v>1601.3838222825</v>
+        <v>2439.024173175</v>
       </c>
       <c r="J9" t="n">
-        <v>265.8294297324999</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122580</v>
+        <v>204300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31320</v>
+        <v>15660</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14400</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28800</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7200</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>72000</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46980</v>
+        <v>78300</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>25221</v>
+        <v>19759</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>21.27</v>
+        <v>1292.211226188929</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7199</v>
+        <v>3913</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>3.12</v>
+        <v>297.1309455279381</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2982</v>
+        <v>1642</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>1.66</v>
+        <v>139.7502035784374</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>8447</v>
+        <v>6008</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>6.55</v>
+        <v>515.7622897664239</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14299</v>
+        <v>11167</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>6.53</v>
+        <v>565.7617391292043</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5023</v>
+        <v>3947</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>2.84</v>
+        <v>315.3599011770748</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2152</v>
+        <v>2839</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1.63</v>
+        <v>176.5895593699763</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>8583</v>
+        <v>8882</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>5.65</v>
+        <v>976.2280083623789</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1151</v>
+        <v>641</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.63</v>
+        <v>52.52731200391857</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7423</v>
+        <v>5469</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>3.28</v>
+        <v>268.5651583880259</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3068</v>
+        <v>2953</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>1.9</v>
+        <v>123.9800842194578</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>13034</v>
+        <v>10729</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>5.84</v>
+        <v>470.1488898963963</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>13904</v>
+        <v>13049</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>6.3</v>
+        <v>542.4938081515725</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>16216</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7517</v>
+        <v>4579</v>
       </c>
       <c r="I2" t="n">
-        <v>4336</v>
+        <v>11853</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1705,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12627</v>
+        <v>21335</v>
       </c>
       <c r="H3" t="n">
-        <v>1339</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7032</v>
       </c>
       <c r="H4" t="n">
-        <v>8329</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7623</v>
+        <v>262</v>
       </c>
       <c r="J4" t="n">
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3560</v>
       </c>
       <c r="H5" t="n">
-        <v>6279</v>
+        <v>555</v>
       </c>
       <c r="I5" t="n">
-        <v>10973</v>
+        <v>8353</v>
       </c>
       <c r="J5" t="n">
-        <v>149</v>
+        <v>526</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6452</v>
+        <v>10702</v>
       </c>
       <c r="H6" t="n">
-        <v>565</v>
+        <v>5154</v>
       </c>
       <c r="I6" t="n">
-        <v>25442</v>
+        <v>9748</v>
       </c>
       <c r="J6" t="n">
-        <v>796</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6689</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3666</v>
       </c>
       <c r="I7" t="n">
-        <v>9814</v>
+        <v>13393</v>
       </c>
       <c r="J7" t="n">
-        <v>1658</v>
+        <v>2060</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3394</v>
+        <v>1427</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5122</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11340</v>
       </c>
       <c r="J8" t="n">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1557</v>
+        <v>3876</v>
       </c>
       <c r="H9" t="n">
-        <v>1863</v>
+        <v>1627</v>
       </c>
       <c r="I9" t="n">
-        <v>17130</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>405.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.925</v>
+        <v>114.475</v>
       </c>
       <c r="I2" t="n">
-        <v>108.4</v>
+        <v>296.3249999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.949999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2117,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>599.7824999999998</v>
+        <v>1013.4125</v>
       </c>
       <c r="H3" t="n">
-        <v>63.60249999999998</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>472.0549999999999</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>476.4179999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>564.2897499999998</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>516.4582499999998</v>
+        <v>17.7505</v>
       </c>
       <c r="J4" t="n">
-        <v>135.43225</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>306.071</v>
       </c>
       <c r="H5" t="n">
-        <v>539.8370249999999</v>
+        <v>47.716125</v>
       </c>
       <c r="I5" t="n">
-        <v>943.4036749999999</v>
+        <v>718.149175</v>
       </c>
       <c r="J5" t="n">
-        <v>12.810275</v>
+        <v>45.22285</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>660.5396299999999</v>
+        <v>1095.644005</v>
       </c>
       <c r="H6" t="n">
-        <v>57.84328749999999</v>
+        <v>527.6536349999999</v>
       </c>
       <c r="I6" t="n">
-        <v>2604.688355</v>
+        <v>997.9758699999999</v>
       </c>
       <c r="J6" t="n">
-        <v>81.49248999999999</v>
+        <v>34.70597249999999</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>783.5477877499999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>429.4343234999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1149.6095065</v>
+        <v>1568.85267175</v>
       </c>
       <c r="J7" t="n">
-        <v>194.2177055</v>
+        <v>241.307885</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>442.6650803499999</v>
+        <v>186.1175809249999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>668.0408195499998</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1479.0282885</v>
       </c>
       <c r="J8" t="n">
-        <v>78.77716809999998</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>221.6906385075</v>
+        <v>551.8772735099999</v>
       </c>
       <c r="H9" t="n">
-        <v>265.2598969424999</v>
+        <v>231.6574623325</v>
       </c>
       <c r="I9" t="n">
-        <v>2439.024173175</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>204300</v>
+        <v>81720</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28800</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15660</v>
+        <v>62640</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7200</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3780</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28800</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>57600</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>78300</v>
+        <v>15660</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19759</v>
+        <v>19583</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>1292.211226188929</v>
+        <v>85.35490319547948</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3913</v>
+        <v>3892</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>297.1309455279381</v>
+        <v>21.76704016988216</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1642</v>
+        <v>1895</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>139.7502035784374</v>
+        <v>9.543203171481736</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>6008</v>
+        <v>9582</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>515.7622897664239</v>
+        <v>41.80255183090831</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>11167</v>
+        <v>9681</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>565.7617391292043</v>
+        <v>33.82385034722555</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3947</v>
+        <v>4293</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>315.3599011770748</v>
+        <v>20.95721676463494</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2839</v>
+        <v>2192</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>176.5895593699763</v>
+        <v>10.48269113382385</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>8882</v>
+        <v>6507</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>976.2280083623789</v>
+        <v>83.82377977856551</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>52.52731200391857</v>
+        <v>3.232260908226927</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5469</v>
+        <v>3808</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>268.5651583880259</v>
+        <v>17.3762116500996</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2953</v>
+        <v>1924</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>123.9800842194578</v>
+        <v>7.904999511015006</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10729</v>
+        <v>6860</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>470.1488898963963</v>
+        <v>28.67064840373131</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>13049</v>
+        <v>11901</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>542.4938081515725</v>
+        <v>41.45691726805141</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="H2" t="n">
-        <v>4579</v>
+        <v>2258</v>
       </c>
       <c r="I2" t="n">
-        <v>11853</v>
+        <v>5157</v>
       </c>
       <c r="J2" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21335</v>
+        <v>4459</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5678</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8038</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1782</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,13 +1749,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7032</v>
+        <v>13531</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="I4" t="n">
-        <v>262</v>
+        <v>29463</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3560</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>555</v>
+        <v>5466</v>
       </c>
       <c r="I5" t="n">
-        <v>8353</v>
+        <v>15467</v>
       </c>
       <c r="J5" t="n">
-        <v>526</v>
+        <v>1267</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10702</v>
+        <v>5258</v>
       </c>
       <c r="H6" t="n">
-        <v>5154</v>
+        <v>6235</v>
       </c>
       <c r="I6" t="n">
-        <v>9748</v>
+        <v>16221</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>136</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6689</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3666</v>
+        <v>6916</v>
       </c>
       <c r="I7" t="n">
-        <v>13393</v>
+        <v>3535</v>
       </c>
       <c r="J7" t="n">
-        <v>2060</v>
+        <v>1670</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1427</v>
+        <v>11549</v>
       </c>
       <c r="H8" t="n">
-        <v>5122</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11340</v>
+        <v>14095</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3876</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1627</v>
+        <v>1243</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1359</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.124999999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>114.475</v>
+        <v>56.44999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>296.3249999999999</v>
+        <v>128.925</v>
       </c>
       <c r="J2" t="n">
-        <v>4.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1013.4125</v>
+        <v>211.8025</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>269.7049999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>381.8049999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>84.64499999999998</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2161,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>476.4179999999998</v>
+        <v>916.7252499999997</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>91.05599999999997</v>
       </c>
       <c r="I4" t="n">
-        <v>17.7505</v>
+        <v>1996.118249999999</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>306.071</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>47.716125</v>
+        <v>469.93935</v>
       </c>
       <c r="I5" t="n">
-        <v>718.149175</v>
+        <v>1329.775325</v>
       </c>
       <c r="J5" t="n">
-        <v>45.22285</v>
+        <v>108.930325</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1095.644005</v>
+        <v>538.3008949999999</v>
       </c>
       <c r="H6" t="n">
-        <v>527.6536349999999</v>
+        <v>638.3237124999999</v>
       </c>
       <c r="I6" t="n">
-        <v>997.9758699999999</v>
+        <v>1660.6654275</v>
       </c>
       <c r="J6" t="n">
-        <v>34.70597249999999</v>
+        <v>13.92334</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>783.5477877499999</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>429.4343234999999</v>
+        <v>810.1385109999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1568.85267175</v>
+        <v>414.0890162499999</v>
       </c>
       <c r="J7" t="n">
-        <v>241.307885</v>
+        <v>195.6233825</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>186.1175809249999</v>
+        <v>1506.287275475</v>
       </c>
       <c r="H8" t="n">
-        <v>668.0408195499998</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1479.0282885</v>
+        <v>1838.351298625</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>90.51548784999997</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>551.8772735099999</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>231.6574623325</v>
+        <v>176.9823144925</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>193.4987654025</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>175.98563211</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81720</v>
+        <v>163440</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14400</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28800</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62640</v>
+        <v>31320</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72000</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3600</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>72000</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15660</v>
+        <v>78300</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19583</v>
+        <v>54207</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>85.35490319547948</v>
+        <v>782.912984854865</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3892</v>
+        <v>11773</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>21.76704016988216</v>
+        <v>127.7327583908015</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1895</v>
+        <v>5627</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9.543203171481736</v>
+        <v>65.97615607751455</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9582</v>
+        <v>17327</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>41.80255183090831</v>
+        <v>323.2129787877726</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>9681</v>
+        <v>19478</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>33.82385034722555</v>
+        <v>349.4100938969852</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4293</v>
+        <v>11773</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>20.95721676463494</v>
+        <v>149.4523285217654</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2192</v>
+        <v>5627</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>10.48269113382385</v>
+        <v>73.2791897421799</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>6507</v>
+        <v>17327</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>83.82377977856551</v>
+        <v>677.1025418759268</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>652</v>
+        <v>2151</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>3.232260908226927</v>
+        <v>27.75234159858656</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3808</v>
+        <v>11773</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>17.3762116500996</v>
+        <v>124.8985331983014</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1924</v>
+        <v>5627</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>7.904999511015006</v>
+        <v>52.24808872327608</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6860</v>
+        <v>17327</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>28.67064840373131</v>
+        <v>301.7341229609249</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>11901</v>
+        <v>19478</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>41.45691726805141</v>
+        <v>304.6691753082312</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>285</v>
+        <v>9623</v>
       </c>
       <c r="H2" t="n">
-        <v>2258</v>
+        <v>3465</v>
       </c>
       <c r="I2" t="n">
-        <v>5157</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4459</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5678</v>
+        <v>1751</v>
       </c>
       <c r="I3" t="n">
-        <v>8038</v>
+        <v>16940</v>
       </c>
       <c r="J3" t="n">
-        <v>1782</v>
+        <v>98</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13531</v>
+        <v>2558</v>
       </c>
       <c r="H4" t="n">
-        <v>1344</v>
+        <v>1368</v>
       </c>
       <c r="I4" t="n">
-        <v>29463</v>
+        <v>20349</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2602</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="H5" t="n">
-        <v>5466</v>
+        <v>7866</v>
       </c>
       <c r="I5" t="n">
-        <v>15467</v>
+        <v>14372</v>
       </c>
       <c r="J5" t="n">
-        <v>1267</v>
+        <v>1673</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5258</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6235</v>
+        <v>7260</v>
       </c>
       <c r="I6" t="n">
-        <v>16221</v>
+        <v>2702</v>
       </c>
       <c r="J6" t="n">
-        <v>136</v>
+        <v>771</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6916</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3535</v>
+        <v>8084</v>
       </c>
       <c r="J7" t="n">
-        <v>1670</v>
+        <v>1096</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>11549</v>
+        <v>3236</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14095</v>
+        <v>7325</v>
       </c>
       <c r="J8" t="n">
-        <v>694</v>
+        <v>1764</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="H9" t="n">
-        <v>1243</v>
+        <v>4300</v>
       </c>
       <c r="I9" t="n">
-        <v>1359</v>
+        <v>6868</v>
       </c>
       <c r="J9" t="n">
-        <v>1236</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.124999999999998</v>
+        <v>240.575</v>
       </c>
       <c r="H2" t="n">
-        <v>56.44999999999999</v>
+        <v>86.62499999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>128.925</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>211.8025</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>269.7049999999999</v>
+        <v>83.17249999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>381.8049999999999</v>
+        <v>804.6499999999997</v>
       </c>
       <c r="J3" t="n">
-        <v>84.64499999999998</v>
+        <v>4.654999999999998</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>916.7252499999997</v>
+        <v>173.3044999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>91.05599999999997</v>
+        <v>92.68199999999997</v>
       </c>
       <c r="I4" t="n">
-        <v>1996.118249999999</v>
+        <v>1378.644749999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>176.2854999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>47.28625</v>
       </c>
       <c r="H5" t="n">
-        <v>469.93935</v>
+        <v>676.27935</v>
       </c>
       <c r="I5" t="n">
-        <v>1329.775325</v>
+        <v>1235.6327</v>
       </c>
       <c r="J5" t="n">
-        <v>108.930325</v>
+        <v>143.836175</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>538.3008949999999</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>638.3237124999999</v>
+        <v>743.2606499999998</v>
       </c>
       <c r="I6" t="n">
-        <v>1660.6654275</v>
+        <v>276.624005</v>
       </c>
       <c r="J6" t="n">
-        <v>13.92334</v>
+        <v>78.93305249999999</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>810.1385109999999</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>414.0890162499999</v>
+        <v>946.9577389999999</v>
       </c>
       <c r="J7" t="n">
-        <v>195.6233825</v>
+        <v>128.385166</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1506.287275475</v>
+        <v>422.0578078999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1838.351298625</v>
+        <v>955.3688018749998</v>
       </c>
       <c r="J8" t="n">
-        <v>90.51548784999997</v>
+        <v>230.0710670999999</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.56594081749999</v>
       </c>
       <c r="H9" t="n">
-        <v>176.9823144925</v>
+        <v>612.2477492499999</v>
       </c>
       <c r="I9" t="n">
-        <v>193.4987654025</v>
+        <v>977.8878004299999</v>
       </c>
       <c r="J9" t="n">
-        <v>175.98563211</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>163440</v>
+        <v>122580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7200</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10800</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72000</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31320</v>
+        <v>62640</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36000</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43200</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2520</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7200</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28800</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>782.912984854865</v>
+        <v>1284.605555555555</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11773</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>127.7327583908015</v>
+        <v>473.4510937499999</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5627</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>65.97615607751455</v>
+        <v>110.6595486111111</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>17327</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>323.2129787877726</v>
+        <v>417.2167777777777</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>19478</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>349.4100938969852</v>
+        <v>482.7916909722222</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11773</v>
+        <v>19133</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>149.4523285217654</v>
+        <v>473.4510937499999</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5627</v>
+        <v>7188</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>73.2791897421799</v>
+        <v>110.6595486111111</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17327</v>
+        <v>22640</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>677.1025418759268</v>
+        <v>834.4335555555554</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2151</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>27.75234159858656</v>
+        <v>65.57491319444443</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11773</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>124.8985331983014</v>
+        <v>412.0635937499999</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5627</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>52.24808872327608</v>
+        <v>96.30371527777775</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>17327</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>301.7341229609249</v>
+        <v>363.0034444444444</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>19478</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>304.6691753082312</v>
+        <v>420.0575243055555</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9623</v>
+        <v>12144</v>
       </c>
       <c r="H2" t="n">
-        <v>3465</v>
+        <v>1713</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6222</v>
       </c>
       <c r="H3" t="n">
-        <v>1751</v>
+        <v>4756</v>
       </c>
       <c r="I3" t="n">
-        <v>16940</v>
+        <v>9593</v>
       </c>
       <c r="J3" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2558</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1368</v>
+        <v>345</v>
       </c>
       <c r="I4" t="n">
-        <v>20349</v>
+        <v>4908</v>
       </c>
       <c r="J4" t="n">
-        <v>2602</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>550</v>
+        <v>14665</v>
       </c>
       <c r="H5" t="n">
-        <v>7866</v>
+        <v>7794</v>
       </c>
       <c r="I5" t="n">
-        <v>14372</v>
+        <v>18455</v>
       </c>
       <c r="J5" t="n">
-        <v>1673</v>
+        <v>2507</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>27062</v>
       </c>
       <c r="H6" t="n">
-        <v>7260</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2702</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1729</v>
       </c>
       <c r="I7" t="n">
-        <v>8084</v>
+        <v>4765</v>
       </c>
       <c r="J7" t="n">
-        <v>1096</v>
+        <v>2578</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3236</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="I8" t="n">
-        <v>7325</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1764</v>
+        <v>1844</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>313</v>
+        <v>12817</v>
       </c>
       <c r="H9" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6868</v>
+        <v>20427</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>240.575</v>
+        <v>303.5999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>86.62499999999999</v>
+        <v>42.82499999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>172.7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>295.5449999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>83.17249999999997</v>
+        <v>225.9099999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>804.6499999999997</v>
+        <v>455.6674999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>4.654999999999998</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>173.3044999999999</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>92.68199999999997</v>
+        <v>23.37374999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>1378.644749999999</v>
+        <v>332.5169999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>176.2854999999999</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>47.28625</v>
+        <v>1260.823375</v>
       </c>
       <c r="H5" t="n">
-        <v>676.27935</v>
+        <v>670.08915</v>
       </c>
       <c r="I5" t="n">
-        <v>1235.6327</v>
+        <v>1586.668625</v>
       </c>
       <c r="J5" t="n">
-        <v>143.836175</v>
+        <v>215.539325</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2770.539905</v>
       </c>
       <c r="H6" t="n">
-        <v>743.2606499999998</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>276.624005</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>78.93305249999999</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>88.44051124999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>202.53462775</v>
       </c>
       <c r="I7" t="n">
-        <v>946.9577389999999</v>
+        <v>558.17090875</v>
       </c>
       <c r="J7" t="n">
-        <v>128.385166</v>
+        <v>301.9862755</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0578078999999</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>116.07893975</v>
       </c>
       <c r="I8" t="n">
-        <v>955.3688018749998</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>230.0710670999999</v>
+        <v>240.5051290999999</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.56594081749999</v>
+        <v>1824.9254423575</v>
       </c>
       <c r="H9" t="n">
-        <v>612.2477492499999</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>977.8878004299999</v>
+        <v>2908.4615753325</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>469.2950189599999</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122580</v>
+        <v>1156145</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28800</v>
+        <v>276243.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18000</v>
+        <v>64601.25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28800</v>
+        <v>243960</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62640</v>
+        <v>282303.75</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21600</v>
+        <v>460406.25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10800</v>
+        <v>43067.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57600</v>
+        <v>243960</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3780</v>
+        <v>38343.75</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14400</v>
+        <v>184162.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14400</v>
+        <v>21533.75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43200</v>
+        <v>162640</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>78300</v>
+        <v>376405</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>75801</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>1284.605555555555</v>
+        <v>710.604</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>473.4510937499999</v>
+        <v>230.67856125</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>110.6595486111111</v>
+        <v>83.69053125000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>417.2167777777777</v>
+        <v>245.012630625</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>482.7916909722222</v>
+        <v>261.55597875</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>19133</v>
+        <v>15034</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>473.4510937499999</v>
+        <v>230.67856125</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>7188</v>
+        <v>12995</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>110.6595486111111</v>
+        <v>83.69053125000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>22640</v>
+        <v>29819</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>834.4335555555554</v>
+        <v>490.02526125</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>65.57491319444443</v>
+        <v>16.543348125</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>412.0635937499999</v>
+        <v>200.76886125</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>96.30371527777775</v>
+        <v>72.83338125</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>363.0034444444444</v>
+        <v>213.175580625</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>420.0575243055555</v>
+        <v>227.56927875</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12144</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1713</v>
+        <v>7567</v>
       </c>
       <c r="I2" t="n">
-        <v>6908</v>
+        <v>14633</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6222</v>
+        <v>10030</v>
       </c>
       <c r="H3" t="n">
-        <v>4756</v>
+        <v>3266</v>
       </c>
       <c r="I3" t="n">
-        <v>9593</v>
+        <v>6335</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,13 +1749,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4801</v>
       </c>
       <c r="H4" t="n">
-        <v>345</v>
+        <v>2040</v>
       </c>
       <c r="I4" t="n">
-        <v>4908</v>
+        <v>8536</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>14665</v>
+        <v>9487</v>
       </c>
       <c r="H5" t="n">
-        <v>7794</v>
+        <v>5417</v>
       </c>
       <c r="I5" t="n">
-        <v>18455</v>
+        <v>14050</v>
       </c>
       <c r="J5" t="n">
-        <v>2507</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27062</v>
+        <v>13225</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2097</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>755</v>
+        <v>9143</v>
       </c>
       <c r="H7" t="n">
-        <v>1729</v>
+        <v>5837</v>
       </c>
       <c r="I7" t="n">
-        <v>4765</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2578</v>
+        <v>696</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5949</v>
       </c>
       <c r="H8" t="n">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>27195</v>
       </c>
       <c r="J8" t="n">
-        <v>1844</v>
+        <v>968</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12817</v>
+        <v>13831</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20427</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3296</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>303.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>42.82499999999999</v>
+        <v>189.175</v>
       </c>
       <c r="I2" t="n">
-        <v>172.7</v>
+        <v>365.8249999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14.85</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>295.5449999999999</v>
+        <v>476.4249999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>225.9099999999999</v>
+        <v>155.135</v>
       </c>
       <c r="I3" t="n">
-        <v>455.6674999999998</v>
+        <v>300.9124999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>20.04499999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2161,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>325.2677499999999</v>
       </c>
       <c r="H4" t="n">
-        <v>23.37374999999999</v>
+        <v>138.21</v>
       </c>
       <c r="I4" t="n">
-        <v>332.5169999999999</v>
+        <v>578.3139999999999</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1260.823375</v>
+        <v>815.644825</v>
       </c>
       <c r="H5" t="n">
-        <v>670.08915</v>
+        <v>465.726575</v>
       </c>
       <c r="I5" t="n">
-        <v>1586.668625</v>
+        <v>1207.94875</v>
       </c>
       <c r="J5" t="n">
-        <v>215.539325</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2770.539905</v>
+        <v>1353.9424375</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>214.6856174999999</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>88.44051124999999</v>
+        <v>1071.00873425</v>
       </c>
       <c r="H7" t="n">
-        <v>202.53462775</v>
+        <v>683.7447207499999</v>
       </c>
       <c r="I7" t="n">
-        <v>558.17090875</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>301.9862755</v>
+        <v>81.52926599999999</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>775.9029354749998</v>
       </c>
       <c r="H8" t="n">
-        <v>116.07893975</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3546.928951124999</v>
       </c>
       <c r="J8" t="n">
-        <v>240.5051290999999</v>
+        <v>126.2521502</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1824.9254423575</v>
+        <v>1969.3020046225</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2908.4615753325</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>469.2950189599999</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1156145</v>
+        <v>1184340</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>276243.75</v>
+        <v>332330</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>64601.25</v>
+        <v>150793.75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>243960</v>
+        <v>353745</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>282303.75</v>
+        <v>94407.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>460406.25</v>
+        <v>415412.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43067.5</v>
+        <v>90476.25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>243960</v>
+        <v>353745</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38343.75</v>
+        <v>29856.25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>184162.5</v>
+        <v>332330</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21533.75</v>
+        <v>30158.75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>162640</v>
+        <v>88436.25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>376405</v>
+        <v>377630</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>75801</v>
+        <v>102597</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>710.604</v>
+        <v>866.8590000000002</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>230.67856125</v>
+        <v>143.96846625</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>83.69053125000001</v>
+        <v>121.31259375</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>245.012630625</v>
+        <v>357.58150875</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>261.55597875</v>
+        <v>378.3256275</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15034</v>
+        <v>11692</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>230.67856125</v>
+        <v>143.96846625</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>12995</v>
+        <v>12302</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>83.69053125000001</v>
+        <v>121.31259375</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>29819</v>
+        <v>39942</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>490.02526125</v>
+        <v>715.1630175</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1024</v>
+        <v>3739</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>16.543348125</v>
+        <v>20.74411875</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>200.76886125</v>
+        <v>125.30156625</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>72.83338125</v>
+        <v>105.57474375</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>213.175580625</v>
+        <v>311.11720875</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>227.56927875</v>
+        <v>329.1658275</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2437</v>
       </c>
       <c r="H2" t="n">
-        <v>7567</v>
+        <v>2177</v>
       </c>
       <c r="I2" t="n">
-        <v>14633</v>
+        <v>4584</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>2091</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10030</v>
+        <v>2351</v>
       </c>
       <c r="H3" t="n">
-        <v>3266</v>
+        <v>4610</v>
       </c>
       <c r="I3" t="n">
-        <v>6335</v>
+        <v>15912</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>612</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4801</v>
+        <v>6745</v>
       </c>
       <c r="H4" t="n">
-        <v>2040</v>
+        <v>5354</v>
       </c>
       <c r="I4" t="n">
-        <v>8536</v>
+        <v>18902</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1793,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9487</v>
+        <v>8073</v>
       </c>
       <c r="H5" t="n">
-        <v>5417</v>
+        <v>7582</v>
       </c>
       <c r="I5" t="n">
-        <v>14050</v>
+        <v>2100</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13225</v>
+        <v>13786</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13029</v>
       </c>
       <c r="J6" t="n">
-        <v>2097</v>
+        <v>49</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9143</v>
+        <v>8090</v>
       </c>
       <c r="H7" t="n">
-        <v>5837</v>
+        <v>5008</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="J7" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5949</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="I8" t="n">
-        <v>27195</v>
+        <v>12357</v>
       </c>
       <c r="J8" t="n">
-        <v>968</v>
+        <v>1351</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>13831</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7915</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23570</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>60.92499999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>189.175</v>
+        <v>54.42499999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>365.8249999999999</v>
+        <v>114.6</v>
       </c>
       <c r="J2" t="n">
-        <v>14.85</v>
+        <v>52.27499999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>476.4249999999998</v>
+        <v>111.6725</v>
       </c>
       <c r="H3" t="n">
-        <v>155.135</v>
+        <v>218.9749999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>300.9124999999999</v>
+        <v>755.8199999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>20.04499999999999</v>
+        <v>29.06999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>325.2677499999999</v>
+        <v>456.9737499999998</v>
       </c>
       <c r="H4" t="n">
-        <v>138.21</v>
+        <v>362.7334999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>578.3139999999999</v>
+        <v>1280.6105</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>67.68224999999998</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>815.644825</v>
+        <v>694.0761749999999</v>
       </c>
       <c r="H5" t="n">
-        <v>465.726575</v>
+        <v>651.86245</v>
       </c>
       <c r="I5" t="n">
-        <v>1207.94875</v>
+        <v>180.5475</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1353.9424375</v>
+        <v>1411.376215</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>153.2591175</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1333.8764475</v>
       </c>
       <c r="J6" t="n">
-        <v>214.6856174999999</v>
+        <v>5.016497499999999</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1071.00873425</v>
+        <v>947.6605774999999</v>
       </c>
       <c r="H7" t="n">
-        <v>683.7447207499999</v>
+        <v>586.635868</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1499.3888</v>
       </c>
       <c r="J7" t="n">
-        <v>81.52926599999999</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>775.9029354749998</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>108.25339325</v>
       </c>
       <c r="I8" t="n">
-        <v>3546.928951124999</v>
+        <v>1611.671301675</v>
       </c>
       <c r="J8" t="n">
-        <v>126.2521502</v>
+        <v>176.205222025</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1969.3020046225</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1126.9630082125</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3355.971965074999</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.43627938</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1184340</v>
+        <v>1444765</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>332330</v>
+        <v>51852.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>150793.75</v>
+        <v>43716.25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>353745</v>
+        <v>258135</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>94407.5</v>
+        <v>409665</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415412.5</v>
+        <v>51852.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>90476.25</v>
+        <v>43716.25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>353745</v>
+        <v>645337.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29856.25</v>
+        <v>37437.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>332330</v>
+        <v>103705</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30158.75</v>
+        <v>131148.75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>88436.25</v>
+        <v>645337.5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>377630</v>
+        <v>409665</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>102597</v>
+        <v>106368</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>866.8590000000002</v>
+        <v>777.306</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>143.96846625</v>
+        <v>164.698509375</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>121.31259375</v>
+        <v>24.753</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>357.58150875</v>
+        <v>345.498665625</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>378.3256275</v>
+        <v>362.74849125</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11692</v>
+        <v>8381</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>143.96846625</v>
+        <v>164.698509375</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>12302</v>
+        <v>4276</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>121.31259375</v>
+        <v>24.753</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>39942</v>
+        <v>41738</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>715.1630175</v>
+        <v>690.99733125</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3739</v>
+        <v>2277</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>20.74411875</v>
+        <v>17.249825625</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>125.30156625</v>
+        <v>143.343759375</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>105.57474375</v>
+        <v>21.5418</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>311.11720875</v>
+        <v>300.604415625</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>329.1658275</v>
+        <v>315.61279125</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2437</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2177</v>
+        <v>1545</v>
       </c>
       <c r="I2" t="n">
-        <v>4584</v>
+        <v>15870</v>
       </c>
       <c r="J2" t="n">
-        <v>2091</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2351</v>
+        <v>3612</v>
       </c>
       <c r="H3" t="n">
-        <v>4610</v>
+        <v>670</v>
       </c>
       <c r="I3" t="n">
-        <v>15912</v>
+        <v>20954</v>
       </c>
       <c r="J3" t="n">
-        <v>612</v>
+        <v>1722</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6745</v>
+        <v>4646</v>
       </c>
       <c r="H4" t="n">
-        <v>5354</v>
+        <v>2009</v>
       </c>
       <c r="I4" t="n">
-        <v>18902</v>
+        <v>4485</v>
       </c>
       <c r="J4" t="n">
-        <v>999</v>
+        <v>164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8073</v>
+        <v>6065</v>
       </c>
       <c r="H5" t="n">
-        <v>7582</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2100</v>
+        <v>16919</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13786</v>
+        <v>18943</v>
       </c>
       <c r="H6" t="n">
-        <v>1497</v>
+        <v>1664</v>
       </c>
       <c r="I6" t="n">
-        <v>13029</v>
+        <v>15613</v>
       </c>
       <c r="J6" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8090</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5008</v>
+        <v>434</v>
       </c>
       <c r="I7" t="n">
-        <v>12800</v>
+        <v>5266</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3834</v>
       </c>
       <c r="H8" t="n">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="I8" t="n">
-        <v>12357</v>
+        <v>16475</v>
       </c>
       <c r="J8" t="n">
-        <v>1351</v>
+        <v>1628</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10355</v>
       </c>
       <c r="H9" t="n">
-        <v>7915</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23570</v>
+        <v>4183</v>
       </c>
       <c r="J9" t="n">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60.92499999999998</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>54.42499999999999</v>
+        <v>38.62499999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>114.6</v>
+        <v>396.7499999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>52.27499999999999</v>
+        <v>9.149999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>111.6725</v>
+        <v>171.57</v>
       </c>
       <c r="H3" t="n">
-        <v>218.9749999999999</v>
+        <v>31.82499999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>755.8199999999998</v>
+        <v>995.3149999999997</v>
       </c>
       <c r="J3" t="n">
-        <v>29.06999999999999</v>
+        <v>81.79499999999997</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>456.9737499999998</v>
+        <v>314.7664999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>362.7334999999999</v>
+        <v>136.10975</v>
       </c>
       <c r="I4" t="n">
-        <v>1280.6105</v>
+        <v>303.8587499999999</v>
       </c>
       <c r="J4" t="n">
-        <v>67.68224999999998</v>
+        <v>11.111</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>694.0761749999999</v>
+        <v>521.438375</v>
       </c>
       <c r="H5" t="n">
-        <v>651.86245</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>180.5475</v>
+        <v>1454.611025</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>61.816025</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1411.376215</v>
+        <v>1939.3369825</v>
       </c>
       <c r="H6" t="n">
-        <v>153.2591175</v>
+        <v>170.35616</v>
       </c>
       <c r="I6" t="n">
-        <v>1333.8764475</v>
+        <v>1598.4199075</v>
       </c>
       <c r="J6" t="n">
-        <v>5.016497499999999</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>947.6605774999999</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>586.635868</v>
+        <v>50.8386515</v>
       </c>
       <c r="I7" t="n">
-        <v>1499.3888</v>
+        <v>616.8579235</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.7473845</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>500.0524213499999</v>
       </c>
       <c r="H8" t="n">
-        <v>108.25339325</v>
+        <v>106.16658085</v>
       </c>
       <c r="I8" t="n">
-        <v>1611.671301675</v>
+        <v>2148.764643125</v>
       </c>
       <c r="J8" t="n">
-        <v>176.205222025</v>
+        <v>212.3331616999999</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1474.3780101125</v>
       </c>
       <c r="H9" t="n">
-        <v>1126.9630082125</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3355.971965074999</v>
+        <v>595.5889151424999</v>
       </c>
       <c r="J9" t="n">
-        <v>126.43627938</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1444765</v>
+        <v>647755</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>51852.5</v>
+        <v>296593.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43716.25</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>258135</v>
+        <v>374118.75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>409665</v>
+        <v>523730</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51852.5</v>
+        <v>237275</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43716.25</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645337.5</v>
+        <v>498825</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37437.5</v>
+        <v>24905</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103705</v>
+        <v>59318.75</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131148.75</v>
+        <v>35680</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645337.5</v>
+        <v>623531.25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>409665</v>
+        <v>130932.5</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>106368</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>777.306</v>
+        <v>195.3772307692308</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>164.698509375</v>
+        <v>33.0097373076923</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>24.753</v>
+        <v>31.93882692307693</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>345.498665625</v>
+        <v>75.440715</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>362.74849125</v>
+        <v>85.27243807692309</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8381</v>
+        <v>3425</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>164.698509375</v>
+        <v>33.0097373076923</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>4276</v>
+        <v>2868</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>24.753</v>
+        <v>31.93882692307693</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>41738</v>
+        <v>14071</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>690.99733125</v>
+        <v>150.88143</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2277</v>
+        <v>1522</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>17.249825625</v>
+        <v>9.831723076923078</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8839</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>143.343759375</v>
+        <v>28.72970653846154</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6429</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>21.5418</v>
+        <v>27.79541153846154</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>12273</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>300.604415625</v>
+        <v>65.63791500000001</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>14682</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>315.61279125</v>
+        <v>74.19209961538462</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1592,7 +1592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1545</v>
+        <v>1872</v>
       </c>
       <c r="I2" t="n">
-        <v>15870</v>
+        <v>12113</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3612</v>
+        <v>3385</v>
       </c>
       <c r="H3" t="n">
-        <v>670</v>
+        <v>973</v>
       </c>
       <c r="I3" t="n">
-        <v>20954</v>
+        <v>1859</v>
       </c>
       <c r="J3" t="n">
-        <v>1722</v>
+        <v>1504</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4646</v>
+        <v>8690</v>
       </c>
       <c r="H4" t="n">
-        <v>2009</v>
+        <v>1095</v>
       </c>
       <c r="I4" t="n">
-        <v>4485</v>
+        <v>2531</v>
       </c>
       <c r="J4" t="n">
-        <v>164</v>
+        <v>2369</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6065</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5202</v>
       </c>
       <c r="I5" t="n">
-        <v>16919</v>
+        <v>9492</v>
       </c>
       <c r="J5" t="n">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18943</v>
+        <v>1051</v>
       </c>
       <c r="H6" t="n">
-        <v>1664</v>
+        <v>7632</v>
       </c>
       <c r="I6" t="n">
-        <v>15613</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3370</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4565</v>
       </c>
       <c r="H7" t="n">
-        <v>434</v>
+        <v>6607</v>
       </c>
       <c r="I7" t="n">
-        <v>5266</v>
+        <v>6646</v>
       </c>
       <c r="J7" t="n">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3834</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16475</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1628</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10355</v>
+        <v>4229</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="I9" t="n">
-        <v>4183</v>
+        <v>4348</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1990,6 +1990,358 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1681</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9137</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2472</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2402</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16920</v>
+      </c>
+      <c r="J11" t="n">
+        <v>766</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8670</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7577</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1230</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1596</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7635</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6153</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13606</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>712</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11239</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1480</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3277</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2804</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2755</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>48</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14272</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3542</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2004,7 +2356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>38.62499999999999</v>
+        <v>46.79999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>396.7499999999999</v>
+        <v>302.8249999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>9.149999999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2117,16 +2469,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>171.57</v>
+        <v>160.7875</v>
       </c>
       <c r="H3" t="n">
-        <v>31.82499999999999</v>
+        <v>46.21749999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>995.3149999999997</v>
+        <v>88.30249999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>81.79499999999997</v>
+        <v>71.43999999999998</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2161,16 +2513,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>314.7664999999999</v>
+        <v>588.7474999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>136.10975</v>
+        <v>74.18624999999997</v>
       </c>
       <c r="I4" t="n">
-        <v>303.8587499999999</v>
+        <v>171.4752499999999</v>
       </c>
       <c r="J4" t="n">
-        <v>11.111</v>
+        <v>160.4997499999999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2205,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>521.438375</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>447.24195</v>
       </c>
       <c r="I5" t="n">
-        <v>1454.611025</v>
+        <v>816.0747</v>
       </c>
       <c r="J5" t="n">
-        <v>61.816025</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,16 +2601,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1939.3369825</v>
+        <v>107.5987525</v>
       </c>
       <c r="H6" t="n">
-        <v>170.35616</v>
+        <v>781.3450799999998</v>
       </c>
       <c r="I6" t="n">
-        <v>1598.4199075</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>345.012175</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>534.74295875</v>
       </c>
       <c r="H7" t="n">
-        <v>50.8386515</v>
+        <v>773.9423282499999</v>
       </c>
       <c r="I7" t="n">
-        <v>616.8579235</v>
+        <v>778.5107784999999</v>
       </c>
       <c r="J7" t="n">
-        <v>44.7473845</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>500.0524213499999</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>106.16658085</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2148.764643125</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>212.3331616999999</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1474.3780101125</v>
+        <v>602.1385422274999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>254.01162434</v>
       </c>
       <c r="I9" t="n">
-        <v>595.5889151424999</v>
+        <v>619.0821427299999</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2402,6 +2754,358 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>257.4365394977499</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1399.28474800175</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>402.5167240182</v>
+      </c>
+      <c r="H11" t="n">
+        <v>391.1185967199499</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2755.090198377</v>
+      </c>
+      <c r="J11" t="n">
+        <v>124.72807872085</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1487.315532974925</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1299.814278356517</v>
+      </c>
+      <c r="I12" t="n">
+        <v>211.003241702325</v>
+      </c>
+      <c r="J12" t="n">
+        <v>273.78957216009</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1369.662622241891</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1103.802765508102</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2440.815931659878</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>132.7547882557438</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2095.549248885259</v>
+      </c>
+      <c r="J14" t="n">
+        <v>275.950964351827</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>631.8318778127319</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>540.6336848907233</v>
+      </c>
+      <c r="J15" t="n">
+        <v>531.186091966456</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.529306414864212</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2833.380440686292</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>721.4150622771695</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2434,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647755</v>
+        <v>793720</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>296593.75</v>
+        <v>115917.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44600</v>
+        <v>112217.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>374118.75</v>
+        <v>132746.25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523730</v>
+        <v>75023.125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>237275</v>
+        <v>28979.375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +3186,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44600</v>
+        <v>112217.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498825</v>
+        <v>331865.625</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24905</v>
+        <v>43250</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>59318.75</v>
+        <v>115917.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35680</v>
+        <v>84163.125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623531.25</v>
+        <v>199119.375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130932.5</v>
+        <v>75023.125</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +3302,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>195.3772307692308</v>
+        <v>232.1513846153846</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>33.0097373076923</v>
+        <v>50.31302769230769</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>31.93882692307693</v>
+        <v>37.51657692307693</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>75.440715</v>
+        <v>86.04604692307693</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>85.27243807692309</v>
+        <v>94.28366692307694</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3425</v>
+        <v>16172</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>33.0097373076923</v>
+        <v>50.31302769230769</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2868</v>
+        <v>9279</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>31.93882692307693</v>
+        <v>37.51657692307693</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>14071</v>
+        <v>14620</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.88143</v>
+        <v>172.0920938461539</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1522</v>
+        <v>1359</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>9.831723076923078</v>
+        <v>8.237620000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>8839</v>
+        <v>2705</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>28.72970653846154</v>
+        <v>43.78945846153847</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6429</v>
+        <v>9545</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>27.79541153846154</v>
+        <v>32.64956153846154</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>12273</v>
+        <v>21250</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>65.63791500000001</v>
+        <v>74.86518538461539</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>14682</v>
+        <v>25719</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>74.19209961538462</v>
+        <v>82.03240538461539</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1592,7 +1592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6946</v>
       </c>
       <c r="H2" t="n">
-        <v>1872</v>
+        <v>9155</v>
       </c>
       <c r="I2" t="n">
-        <v>12113</v>
+        <v>10650</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3385</v>
+        <v>9073</v>
       </c>
       <c r="H3" t="n">
-        <v>973</v>
+        <v>66</v>
       </c>
       <c r="I3" t="n">
-        <v>1859</v>
+        <v>3857</v>
       </c>
       <c r="J3" t="n">
-        <v>1504</v>
+        <v>1036</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8690</v>
+        <v>2660</v>
       </c>
       <c r="H4" t="n">
-        <v>1095</v>
+        <v>4345</v>
       </c>
       <c r="I4" t="n">
-        <v>2531</v>
+        <v>11405</v>
       </c>
       <c r="J4" t="n">
-        <v>2369</v>
+        <v>2716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5202</v>
+        <v>5017</v>
       </c>
       <c r="I5" t="n">
-        <v>9492</v>
+        <v>9444</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1670</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1051</v>
+        <v>41</v>
       </c>
       <c r="H6" t="n">
-        <v>7632</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="J6" t="n">
-        <v>3370</v>
+        <v>67</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4565</v>
+        <v>4124</v>
       </c>
       <c r="H7" t="n">
-        <v>6607</v>
+        <v>2652</v>
       </c>
       <c r="I7" t="n">
-        <v>6646</v>
+        <v>16421</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9688</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5128</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7968</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1969,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4229</v>
+        <v>2804</v>
       </c>
       <c r="H9" t="n">
-        <v>1784</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4348</v>
+        <v>466</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1990,358 +1990,6 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1681</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9137</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2472</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2402</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16920</v>
-      </c>
-      <c r="J11" t="n">
-        <v>766</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8670</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7577</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1230</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1596</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7635</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6153</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13606</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>712</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11239</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1480</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3277</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2804</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2755</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>48</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14272</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3542</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2356,7 +2004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>173.6499999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>46.79999999999999</v>
+        <v>228.8749999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>302.8249999999999</v>
+        <v>266.2499999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.724999999999998</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2469,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>160.7875</v>
+        <v>430.9674999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>46.21749999999999</v>
+        <v>3.134999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>88.30249999999998</v>
+        <v>183.2075</v>
       </c>
       <c r="J3" t="n">
-        <v>71.43999999999998</v>
+        <v>49.20999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2513,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>588.7474999999998</v>
+        <v>180.2149999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>74.18624999999997</v>
+        <v>294.3737499999999</v>
       </c>
       <c r="I4" t="n">
-        <v>171.4752499999999</v>
+        <v>772.6887499999997</v>
       </c>
       <c r="J4" t="n">
-        <v>160.4997499999999</v>
+        <v>184.0089999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2560,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>447.24195</v>
+        <v>431.336575</v>
       </c>
       <c r="I5" t="n">
-        <v>816.0747</v>
+        <v>811.9479</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>143.57825</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2601,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>107.5987525</v>
+        <v>4.197477499999999</v>
       </c>
       <c r="H6" t="n">
-        <v>781.3450799999998</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.03688</v>
       </c>
       <c r="J6" t="n">
-        <v>345.012175</v>
+        <v>6.859292499999999</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2645,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>534.74295875</v>
+        <v>483.084329</v>
       </c>
       <c r="H7" t="n">
-        <v>773.9423282499999</v>
+        <v>310.654617</v>
       </c>
       <c r="I7" t="n">
-        <v>778.5107784999999</v>
+        <v>1923.55183475</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -2689,13 +2337,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1263.5649082</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>668.8233741999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1039.2325752</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -2733,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>602.1385422274999</v>
+        <v>399.2424857899999</v>
       </c>
       <c r="H9" t="n">
-        <v>254.01162434</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>619.0821427299999</v>
+        <v>66.35057003499999</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2754,358 +2402,6 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>257.4365394977499</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1399.28474800175</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>402.5167240182</v>
-      </c>
-      <c r="H11" t="n">
-        <v>391.1185967199499</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2755.090198377</v>
-      </c>
-      <c r="J11" t="n">
-        <v>124.72807872085</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1487.315532974925</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1299.814278356517</v>
-      </c>
-      <c r="I12" t="n">
-        <v>211.003241702325</v>
-      </c>
-      <c r="J12" t="n">
-        <v>273.78957216009</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1369.662622241891</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1103.802765508102</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2440.815931659878</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>132.7547882557438</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2095.549248885259</v>
-      </c>
-      <c r="J14" t="n">
-        <v>275.950964351827</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>631.8318778127319</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>540.6336848907233</v>
-      </c>
-      <c r="J15" t="n">
-        <v>531.186091966456</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9.529306414864212</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2833.380440686292</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>721.4150622771695</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>793720</v>
+        <v>707336.25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3146,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>115917.5</v>
+        <v>88340</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3154,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>112217.5</v>
+        <v>65907.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3162,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>132746.25</v>
+        <v>75703.75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3170,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75023.125</v>
+        <v>331805</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3178,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28979.375</v>
+        <v>44170</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3186,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>112217.5</v>
+        <v>32953.75</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3194,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>331865.625</v>
+        <v>378518.75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3202,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43250</v>
+        <v>14495</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3210,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>115917.5</v>
+        <v>220850</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3218,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84163.125</v>
+        <v>164768.75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3226,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>199119.375</v>
+        <v>302815</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3234,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>75023.125</v>
+        <v>165902.5</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3349,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3396,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3443,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3490,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3584,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3678,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3725,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3772,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3819,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3866,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_NonStationary.xlsx
+++ b/Instances/02_NonStationary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -46,7 +46,10 @@
     <t>NonStationary</t>
   </si>
   <si>
-    <t>NrTimeBucketWithoutUncertainty</t>
+    <t>NrTimeBucketWithoutUncertaintyBefore</t>
+  </si>
+  <si>
+    <t>NrTimeBucketWithoutUncertaintyAfter</t>
   </si>
   <si>
     <t>Manuf_0001</t>
@@ -458,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -524,6 +527,14 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -548,48 +559,48 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -633,7 +644,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -677,7 +688,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -721,7 +732,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -765,7 +776,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -809,7 +820,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -853,7 +864,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -897,7 +908,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -941,7 +952,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -985,7 +996,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1029,7 +1040,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -1073,7 +1084,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1117,7 +1128,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -1180,33 +1191,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1218,7 +1229,7 @@
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>232.1513846153846</v>
+        <v>1665.096</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1235,7 +1246,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1247,7 +1258,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>50.31302769230769</v>
+        <v>45.83399999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1264,7 +1275,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1276,7 +1287,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>37.51657692307693</v>
+        <v>36.50160000000005</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1293,7 +1304,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1305,7 +1316,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>86.04604692307693</v>
+        <v>75.89279999999998</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1322,7 +1333,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1334,7 +1345,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>94.28366692307694</v>
+        <v>91.53599999999997</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1351,19 +1362,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16172</v>
+        <v>16231</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>50.31302769230769</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1380,19 +1391,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9279</v>
+        <v>3362</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>37.51657692307693</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1409,19 +1420,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>14620</v>
+        <v>34034</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>172.0920938461539</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1438,19 +1449,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1359</v>
+        <v>7091</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>8.237620000000001</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1467,19 +1478,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2705</v>
+        <v>2373</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>43.78945846153847</v>
+        <v>2.100724999999981</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1496,19 +1507,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9545</v>
+        <v>12749</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>32.64956153846154</v>
+        <v>1.520899999999991</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1525,19 +1536,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>21250</v>
+        <v>6303</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>74.86518538461539</v>
+        <v>2.21354000000002</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1554,19 +1565,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>25719</v>
+        <v>7265</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>82.03240538461539</v>
+        <v>2.669800000000023</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1602,43 +1613,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1661,16 +1672,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6946</v>
+        <v>8040</v>
       </c>
       <c r="H2" t="n">
-        <v>9155</v>
+        <v>1340</v>
       </c>
       <c r="I2" t="n">
-        <v>10650</v>
+        <v>22759</v>
       </c>
       <c r="J2" t="n">
-        <v>309</v>
+        <v>3173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1705,16 +1716,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9073</v>
+        <v>8044</v>
       </c>
       <c r="H3" t="n">
-        <v>66</v>
+        <v>1990</v>
       </c>
       <c r="I3" t="n">
-        <v>3857</v>
+        <v>10999</v>
       </c>
       <c r="J3" t="n">
-        <v>1036</v>
+        <v>3852</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1749,16 +1760,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2660</v>
+        <v>2333</v>
       </c>
       <c r="H4" t="n">
-        <v>4345</v>
+        <v>4755</v>
       </c>
       <c r="I4" t="n">
-        <v>11405</v>
+        <v>6197</v>
       </c>
       <c r="J4" t="n">
-        <v>2716</v>
+        <v>730</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1796,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5017</v>
+        <v>7744</v>
       </c>
       <c r="I5" t="n">
-        <v>9444</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1670</v>
+        <v>215</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1837,16 +1848,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3163</v>
       </c>
       <c r="I6" t="n">
-        <v>352</v>
+        <v>14251</v>
       </c>
       <c r="J6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1881,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4124</v>
+        <v>5619</v>
       </c>
       <c r="H7" t="n">
-        <v>2652</v>
+        <v>4289</v>
       </c>
       <c r="I7" t="n">
-        <v>16421</v>
+        <v>7201</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2357</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1925,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9688</v>
+        <v>10335</v>
       </c>
       <c r="H8" t="n">
-        <v>5128</v>
+        <v>5149</v>
       </c>
       <c r="I8" t="n">
-        <v>7968</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1411</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1969,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2804</v>
+        <v>3824</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1988</v>
       </c>
       <c r="I9" t="n">
-        <v>466</v>
+        <v>1837</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2014,43 +2025,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2073,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>173.6499999999999</v>
+        <v>200.9999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>228.8749999999999</v>
+        <v>33.49999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>266.2499999999999</v>
+        <v>568.9749999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>7.724999999999998</v>
+        <v>79.32499999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2117,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>430.9674999999999</v>
+        <v>382.0899999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>3.134999999999999</v>
+        <v>94.52499999999998</v>
       </c>
       <c r="I3" t="n">
-        <v>183.2075</v>
+        <v>522.4524999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>49.20999999999999</v>
+        <v>182.9699999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2161,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>180.2149999999999</v>
+        <v>158.06075</v>
       </c>
       <c r="H4" t="n">
-        <v>294.3737499999999</v>
+        <v>322.1512499999999</v>
       </c>
       <c r="I4" t="n">
-        <v>772.6887499999997</v>
+        <v>419.8467499999999</v>
       </c>
       <c r="J4" t="n">
-        <v>184.0089999999999</v>
+        <v>49.45749999999998</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2208,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>431.336575</v>
+        <v>665.7904</v>
       </c>
       <c r="I5" t="n">
-        <v>811.9479</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>143.57825</v>
+        <v>18.484625</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2249,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.197477499999999</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>323.8200325</v>
       </c>
       <c r="I6" t="n">
-        <v>36.03688</v>
+        <v>1458.9817525</v>
       </c>
       <c r="J6" t="n">
-        <v>6.859292499999999</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2293,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>483.084329</v>
+        <v>658.20825525</v>
       </c>
       <c r="H7" t="n">
-        <v>310.654617</v>
+        <v>502.4123877499999</v>
       </c>
       <c r="I7" t="n">
-        <v>1923.55183475</v>
+        <v>843.5233397499999</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>276.09839075</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2337,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1263.5649082</v>
+        <v>1347.950384625</v>
       </c>
       <c r="H8" t="n">
-        <v>668.8233741999999</v>
+        <v>671.5623154749999</v>
       </c>
       <c r="I8" t="n">
-        <v>1039.2325752</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>184.030768525</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2381,16 +2392,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>399.2424857899999</v>
+        <v>544.47334724</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>283.0577966299999</v>
       </c>
       <c r="I9" t="n">
-        <v>66.35057003499999</v>
+        <v>261.5579338075</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>184.813390355</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2416,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2434,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>707336.25</v>
+        <v>181116.25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88340</v>
+        <v>728479.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65907.5</v>
+        <v>780513.75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,79 +2469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75703.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>331805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>44170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>32953.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>378518.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>14495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>220850</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>164768.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>302815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>165902.5</v>
+        <v>1561027.5</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2552,7 +2491,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -2565,261 +2504,99 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
@@ -2829,213 +2606,78 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -3044,42 +2686,15 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -3088,42 +2703,15 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -3132,37 +2720,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
